--- a/core/utils/docs_proj_end/cadenderecoJOINVILLE.xlsx
+++ b/core/utils/docs_proj_end/cadenderecoJOINVILLE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="347">
   <si>
     <t xml:space="preserve">PROJETO</t>
   </si>
@@ -1027,6 +1027,18 @@
     <t xml:space="preserve">TERESINHA BARP (CEI)</t>
   </si>
   <si>
+    <t xml:space="preserve">Rua dos Bororós</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zona Industrial Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89239-290</t>
+  </si>
+  <si>
     <t xml:space="preserve">3327</t>
   </si>
   <si>
@@ -1036,6 +1048,9 @@
     <t xml:space="preserve">LUZIA PESKY (CEI)</t>
   </si>
   <si>
+    <t xml:space="preserve">89239-291</t>
+  </si>
+  <si>
     <t xml:space="preserve">3328</t>
   </si>
   <si>
@@ -1043,6 +1058,9 @@
   </si>
   <si>
     <t xml:space="preserve">SECON – PMJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89239-292</t>
   </si>
 </sst>
 </file>
@@ -1372,203 +1390,203 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1837,10 +1855,10 @@
   </sheetPr>
   <dimension ref="A1:AE819"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F169" activeCellId="0" sqref="F169"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E163" activeCellId="0" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2890625" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9255,11 +9273,21 @@
         <v>334</v>
       </c>
       <c r="E159" s="17"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="31"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="31"/>
+      <c r="F159" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G159" s="12" t="n">
+        <v>502</v>
+      </c>
+      <c r="H159" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="J159" s="31" t="s">
+        <v>338</v>
+      </c>
       <c r="K159" s="13" t="s">
         <v>13</v>
       </c>
@@ -9293,20 +9321,30 @@
         <v>13</v>
       </c>
       <c r="B160" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E160" s="17"/>
+      <c r="F160" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="G160" s="12" t="n">
+        <v>502</v>
+      </c>
+      <c r="H160" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="I160" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E160" s="17"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="31"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="31"/>
+      <c r="J160" s="31" t="s">
+        <v>342</v>
+      </c>
       <c r="K160" s="13" t="s">
         <v>13</v>
       </c>
@@ -9340,20 +9378,30 @@
         <v>13</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D161" s="34" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E161" s="36"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="38"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="38"/>
+      <c r="F161" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G161" s="37" t="n">
+        <v>502</v>
+      </c>
+      <c r="H161" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="J161" s="31" t="s">
+        <v>346</v>
+      </c>
       <c r="K161" s="13" t="s">
         <v>13</v>
       </c>
